--- a/outputs/CERESTRES_results/Gasera_vs_Chromat/Avg_rates_compare_TR2.xlsx
+++ b/outputs/CERESTRES_results/Gasera_vs_Chromat/Avg_rates_compare_TR2.xlsx
@@ -1980,8 +1980,14 @@
       <c r="C80">
         <v>13.44172428877063</v>
       </c>
+      <c r="D80">
+        <v>11.95805569005194</v>
+      </c>
       <c r="E80">
         <v>-0.3917557689309391</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1996,8 +2002,14 @@
       <c r="C81">
         <v>0.4276618436117894</v>
       </c>
+      <c r="D81">
+        <v>4.190540288240674</v>
+      </c>
       <c r="E81">
         <v>-0.02769236713894425</v>
+      </c>
+      <c r="F81">
+        <v>-0.06210968465942807</v>
       </c>
     </row>
     <row r="82">
@@ -2012,8 +2024,14 @@
       <c r="C82">
         <v>-7.293518122016534</v>
       </c>
+      <c r="D82">
+        <v>3.102110214440756</v>
+      </c>
       <c r="E82">
         <v>-0.1736965801583464</v>
+      </c>
+      <c r="F82">
+        <v>0.1808263114342426</v>
       </c>
     </row>
     <row r="83">
@@ -2028,8 +2046,14 @@
       <c r="C83">
         <v>12.51503217766737</v>
       </c>
+      <c r="D83">
+        <v>2.6590140586725</v>
+      </c>
       <c r="E83">
         <v>-0.08209232979812259</v>
+      </c>
+      <c r="F83">
+        <v>0.02773048452842477</v>
       </c>
     </row>
     <row r="84">
@@ -2044,8 +2068,14 @@
       <c r="C84">
         <v>-3.217608849348705</v>
       </c>
+      <c r="D84">
+        <v>4.544889101812816</v>
+      </c>
       <c r="E84">
         <v>-0.2742741650040051</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2060,8 +2090,14 @@
       <c r="C85">
         <v>-1.380114257350821</v>
       </c>
+      <c r="D85">
+        <v>3.516834882465083</v>
+      </c>
       <c r="E85">
         <v>-0.41222810354254</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2076,8 +2112,14 @@
       <c r="C86">
         <v>82.8120052445901</v>
       </c>
+      <c r="D86">
+        <v>19.88092836616177</v>
+      </c>
       <c r="E86">
         <v>-0.2875838866073629</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2092,8 +2134,14 @@
       <c r="C87">
         <v>24.72194749517559</v>
       </c>
+      <c r="D87">
+        <v>15.16125929884498</v>
+      </c>
       <c r="E87">
         <v>-0.218141876659326</v>
+      </c>
+      <c r="F87">
+        <v>-0.2774951793273467</v>
       </c>
     </row>
     <row r="88">
@@ -2108,8 +2156,14 @@
       <c r="C88">
         <v>26.50137246837691</v>
       </c>
+      <c r="D88">
+        <v>14.1350299929527</v>
+      </c>
       <c r="E88">
         <v>-0.08610111222395428</v>
+      </c>
+      <c r="F88">
+        <v>0.05677080834895969</v>
       </c>
     </row>
     <row r="89">
@@ -2124,8 +2178,14 @@
       <c r="C89">
         <v>12.93810922913022</v>
       </c>
+      <c r="D89">
+        <v>3.908739261787464</v>
+      </c>
       <c r="E89">
         <v>-0.4323784995440365</v>
+      </c>
+      <c r="F89">
+        <v>-0.02541113043146798</v>
       </c>
     </row>
     <row r="90">
@@ -2140,8 +2200,14 @@
       <c r="C90">
         <v>-0.6459735294568055</v>
       </c>
+      <c r="D90">
+        <v>0.754060103366621</v>
+      </c>
       <c r="E90">
         <v>-0.0812433660781816</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2156,8 +2222,14 @@
       <c r="C91">
         <v>8.203172268514061</v>
       </c>
+      <c r="D91">
+        <v>0.2580185610531088</v>
+      </c>
       <c r="E91">
         <v>-0.2402308322727173</v>
+      </c>
+      <c r="F91">
+        <v>0.01828133306007306</v>
       </c>
     </row>
     <row r="92">
@@ -2172,8 +2244,14 @@
       <c r="C92">
         <v>-0.8863142098379193</v>
       </c>
+      <c r="D92">
+        <v>2.251520059859593</v>
+      </c>
       <c r="E92">
         <v>-0.5078967858618312</v>
+      </c>
+      <c r="F92">
+        <v>0.066943664893726</v>
       </c>
     </row>
     <row r="93">
@@ -2188,8 +2266,14 @@
       <c r="C93">
         <v>0.8165596696775361</v>
       </c>
+      <c r="D93">
+        <v>0.6948910550414069</v>
+      </c>
       <c r="E93">
         <v>-0.1422828455509214</v>
+      </c>
+      <c r="F93">
+        <v>0.01882846626858797</v>
       </c>
     </row>
     <row r="94">
@@ -2204,8 +2288,14 @@
       <c r="C94">
         <v>0.3601655697871197</v>
       </c>
+      <c r="D94">
+        <v>1.702265982328107</v>
+      </c>
       <c r="E94">
         <v>-0.317403700328702</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2220,8 +2310,14 @@
       <c r="C95">
         <v>0.8042168456204958</v>
       </c>
+      <c r="D95">
+        <v>0.5623574237571588</v>
+      </c>
       <c r="E95">
         <v>-0.4171627402345002</v>
+      </c>
+      <c r="F95">
+        <v>0.04463544148491994</v>
       </c>
     </row>
     <row r="96">
@@ -2236,8 +2332,14 @@
       <c r="C96">
         <v>-0.01190490287500619</v>
       </c>
+      <c r="D96">
+        <v>0.2982079862003869</v>
+      </c>
       <c r="E96">
         <v>-0.02512384068216051</v>
+      </c>
+      <c r="F96">
+        <v>0.02980639429221567</v>
       </c>
     </row>
     <row r="97">
@@ -2252,8 +2354,14 @@
       <c r="C97">
         <v>-0.3857209288995758</v>
       </c>
+      <c r="D97">
+        <v>4.048403661591554</v>
+      </c>
       <c r="E97">
         <v>-0.3630394601884732</v>
+      </c>
+      <c r="F97">
+        <v>0.1007350120227873</v>
       </c>
     </row>
     <row r="98">
@@ -2268,8 +2376,14 @@
       <c r="C98">
         <v>4.488120627432221</v>
       </c>
+      <c r="D98">
+        <v>0.6845325888330512</v>
+      </c>
       <c r="E98">
         <v>-0.2675508941994356</v>
+      </c>
+      <c r="F98">
+        <v>0.2891498777408188</v>
       </c>
     </row>
     <row r="99">
@@ -2284,8 +2398,14 @@
       <c r="C99">
         <v>-0.4015450969788456</v>
       </c>
+      <c r="D99">
+        <v>1.529832352787557</v>
+      </c>
       <c r="E99">
         <v>-0.1453584172793282</v>
+      </c>
+      <c r="F99">
+        <v>0.1904589190327454</v>
       </c>
     </row>
     <row r="100">
@@ -2300,8 +2420,14 @@
       <c r="C100">
         <v>0.7529060824563683</v>
       </c>
+      <c r="D100">
+        <v>0.2913780881065355</v>
+      </c>
       <c r="E100">
         <v>-0.3436260642438503</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
